--- a/generated_questions.xlsx
+++ b/generated_questions.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -474,46 +474,26 @@
           <t>标签</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="K1" s="1" t="inlineStr">
-        <is>
-          <t>C</t>
-        </is>
-      </c>
-      <c r="L1" s="1" t="inlineStr">
-        <is>
-          <t>D</t>
-        </is>
-      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>选择题</t>
+          <t>填空题</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>导致北宋灭亡的直接原因是哪场战争？</t>
+          <t>______运动是18世纪欧洲启蒙思想传播的产物，主张理性和自由。</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>法国大革命</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>靖康之耻是金国灭北宋的战争，导致北宋灭亡。</t>
+          <t>法国大革命是18世纪启蒙思想传播的产物，其口号为“自由、平等、博爱”。</t>
         </is>
       </c>
       <c r="E2" t="n">
@@ -524,61 +504,41 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>北宋历史</t>
+          <t>启蒙运动</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>['中国历史', '战争']</t>
-        </is>
-      </c>
-      <c r="I2" t="inlineStr">
-        <is>
-          <t>澶渊之盟</t>
-        </is>
-      </c>
-      <c r="J2" t="inlineStr">
-        <is>
-          <t>靖康之耻</t>
-        </is>
-      </c>
-      <c r="K2" t="inlineStr">
-        <is>
-          <t>方腊起义</t>
-        </is>
-      </c>
-      <c r="L2" t="inlineStr">
-        <is>
-          <t>女真入侵</t>
+          <t>欧洲历史</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>选择题</t>
+          <t>填空题</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>工业革命的发源地是：</t>
+          <t>在19世纪，______是英国工业革命中最重要的发明，极大地提高了生产效率。</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>蒸汽机</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>工业革命起源于18世纪的英国。</t>
+          <t>蒸汽机是工业革命中最主要的动力机械，极大地提高了生产效率。</t>
         </is>
       </c>
       <c r="E3" t="n">
         <v>2</v>
       </c>
       <c r="F3" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G3" t="inlineStr">
         <is>
@@ -587,85 +547,45 @@
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>['世界历史', '科技革命']</t>
-        </is>
-      </c>
-      <c r="I3" t="inlineStr">
-        <is>
-          <t>英国</t>
-        </is>
-      </c>
-      <c r="J3" t="inlineStr">
-        <is>
-          <t>法国</t>
-        </is>
-      </c>
-      <c r="K3" t="inlineStr">
-        <is>
-          <t>美国</t>
-        </is>
-      </c>
-      <c r="L3" t="inlineStr">
-        <is>
-          <t>德国</t>
+          <t>英国历史</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>选择题</t>
+          <t>填空题</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>下列哪项不是冷战的主要特征？</t>
+          <t>在______时期，中国经历了社会动荡和外患不断，清朝逐渐衰落。</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>晚清</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>经济合作不是冷战的主要特征。</t>
+          <t>晚清是中国历史上的一个时期，从1840年鸦片战争到1911年辛亥革命。这一时期内，中国受到西方列强的侵略，清朝政府腐败无能，导致社会动荡和外患不断。</t>
         </is>
       </c>
       <c r="E4" t="n">
         <v>2</v>
       </c>
       <c r="F4" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>冷战</t>
+          <t>晚清历史</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>['世界历史', '国际关系']</t>
-        </is>
-      </c>
-      <c r="I4" t="inlineStr">
-        <is>
-          <t>意识形态对抗</t>
-        </is>
-      </c>
-      <c r="J4" t="inlineStr">
-        <is>
-          <t>军备竞赛</t>
-        </is>
-      </c>
-      <c r="K4" t="inlineStr">
-        <is>
-          <t>局部战争</t>
-        </is>
-      </c>
-      <c r="L4" t="inlineStr">
-        <is>
-          <t>经济合作</t>
+          <t>中国历史</t>
         </is>
       </c>
     </row>

--- a/generated_questions.xlsx
+++ b/generated_questions.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Questions" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Questions" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H4"/>
+  <dimension ref="A1:L4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -474,26 +474,46 @@
           <t>标签</t>
         </is>
       </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>填空题</t>
+          <t>选择题</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>______运动是18世纪欧洲启蒙思想传播的产物，主张理性和自由。</t>
+          <t>以下哪场战争被认为是近代史上第一次世界大战？</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>法国大革命</t>
+          <t>A</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>法国大革命是18世纪启蒙思想传播的产物，其口号为“自由、平等、博爱”。</t>
+          <t>普法战争是1870-1871年间普鲁士和法国之间的一场战争，被认为是近代史上的第一次世界大战。</t>
         </is>
       </c>
       <c r="E2" t="n">
@@ -504,88 +524,148 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>启蒙运动</t>
+          <t>近代世界史</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>欧洲历史</t>
+          <t>世界战争</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>普法战争</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>克里米亚战争</t>
+        </is>
+      </c>
+      <c r="K2" t="inlineStr">
+        <is>
+          <t>美国南北战争</t>
+        </is>
+      </c>
+      <c r="L2" t="inlineStr">
+        <is>
+          <t>七年战争</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>填空题</t>
+          <t>选择题</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>在19世纪，______是英国工业革命中最重要的发明，极大地提高了生产效率。</t>
+          <t>导致苏联解体的主要原因是什么？</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>蒸汽机</t>
+          <t>B</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>蒸汽机是工业革命中最主要的动力机械，极大地提高了生产效率。</t>
+          <t>经济停滞和民族矛盾是导致苏联解体的主要原因。</t>
         </is>
       </c>
       <c r="E3" t="n">
         <v>2</v>
       </c>
       <c r="F3" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>工业革命</t>
+          <t>当代世界史</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>英国历史</t>
+          <t>冷战</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>核武器竞赛</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>经济停滞和民族矛盾</t>
+        </is>
+      </c>
+      <c r="K3" t="inlineStr">
+        <is>
+          <t>意识形态斗争</t>
+        </is>
+      </c>
+      <c r="L3" t="inlineStr">
+        <is>
+          <t>国际孤立</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>填空题</t>
+          <t>选择题</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>在______时期，中国经历了社会动荡和外患不断，清朝逐渐衰落。</t>
+          <t>以下哪位历史人物被称为“铁血宰相”？</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>晚清</t>
+          <t>A</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>晚清是中国历史上的一个时期，从1840年鸦片战争到1911年辛亥革命。这一时期内，中国受到西方列强的侵略，清朝政府腐败无能，导致社会动荡和外患不断。</t>
+          <t>奥托·冯·俾斯麦，普鲁士和后来的德国总理，因其强硬的外交政策和对铁血政策的支持而被称为“铁血宰相”。</t>
         </is>
       </c>
       <c r="E4" t="n">
         <v>2</v>
       </c>
       <c r="F4" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>晚清历史</t>
+          <t>近代欧洲史</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>中国历史</t>
+          <t>德国历史</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>奥托·冯·俾斯麦</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>拿破仑·波拿巴</t>
+        </is>
+      </c>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>罗伯斯庇尔</t>
+        </is>
+      </c>
+      <c r="L4" t="inlineStr">
+        <is>
+          <t>温斯顿·丘吉尔</t>
         </is>
       </c>
     </row>

--- a/generated_questions.xlsx
+++ b/generated_questions.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Questions" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -17,16 +17,13 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="2">
+  <fonts count="1">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
       <color theme="1"/>
       <sz val="11"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <b val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -37,7 +34,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -45,21 +42,12 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -425,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L4"/>
+  <dimension ref="A21:H23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -433,239 +421,117 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>题型</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>题干</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>正确答案</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>答案解析</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>分值</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>难度系数</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>知识点</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>标签</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="K1" s="1" t="inlineStr">
-        <is>
-          <t>C</t>
-        </is>
-      </c>
-      <c r="L1" s="1" t="inlineStr">
-        <is>
-          <t>D</t>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>填空题</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>东汉末年农民起义的领袖是____。</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>张角</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>张角是东汉末年太平道教的领袖，发动了黄巾起义。</t>
+        </is>
+      </c>
+      <c r="E21" t="n">
+        <v>2</v>
+      </c>
+      <c r="F21" t="n">
+        <v>3</v>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>东汉末年农民起义</t>
+        </is>
+      </c>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>中国历史</t>
         </is>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>选择题</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>以下哪场战争被认为是近代史上第一次世界大战？</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>普法战争是1870-1871年间普鲁士和法国之间的一场战争，被认为是近代史上的第一次世界大战。</t>
-        </is>
-      </c>
-      <c r="E2" t="n">
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>填空题</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>意大利文艺复兴时期，人文主义的代表人物是____。</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>达芬奇、拉斐尔、米开朗基罗</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>达芬奇、拉斐尔、米开朗基罗是意大利文艺复兴时期著名的三位人文主义大师。</t>
+        </is>
+      </c>
+      <c r="E22" t="n">
         <v>2</v>
       </c>
-      <c r="F2" t="n">
+      <c r="F22" t="n">
         <v>3</v>
       </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>近代世界史</t>
-        </is>
-      </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>世界战争</t>
-        </is>
-      </c>
-      <c r="I2" t="inlineStr">
-        <is>
-          <t>普法战争</t>
-        </is>
-      </c>
-      <c r="J2" t="inlineStr">
-        <is>
-          <t>克里米亚战争</t>
-        </is>
-      </c>
-      <c r="K2" t="inlineStr">
-        <is>
-          <t>美国南北战争</t>
-        </is>
-      </c>
-      <c r="L2" t="inlineStr">
-        <is>
-          <t>七年战争</t>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>意大利文艺复兴</t>
+        </is>
+      </c>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>欧洲历史</t>
         </is>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>选择题</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>导致苏联解体的主要原因是什么？</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>经济停滞和民族矛盾是导致苏联解体的主要原因。</t>
-        </is>
-      </c>
-      <c r="E3" t="n">
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>填空题</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>美国独立宣言中著名的一句话是____。</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>人人生而平等，造物主赋予他们若干不可剥夺的权利，其中包括生命权、自由权和追求幸福的权利。</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>这句话是美国独立宣言中著名的开篇宣言，阐述了人权和政府存在的正当性。</t>
+        </is>
+      </c>
+      <c r="E23" t="n">
         <v>2</v>
       </c>
-      <c r="F3" t="n">
+      <c r="F23" t="n">
         <v>3</v>
       </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>当代世界史</t>
-        </is>
-      </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>冷战</t>
-        </is>
-      </c>
-      <c r="I3" t="inlineStr">
-        <is>
-          <t>核武器竞赛</t>
-        </is>
-      </c>
-      <c r="J3" t="inlineStr">
-        <is>
-          <t>经济停滞和民族矛盾</t>
-        </is>
-      </c>
-      <c r="K3" t="inlineStr">
-        <is>
-          <t>意识形态斗争</t>
-        </is>
-      </c>
-      <c r="L3" t="inlineStr">
-        <is>
-          <t>国际孤立</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>选择题</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>以下哪位历史人物被称为“铁血宰相”？</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>奥托·冯·俾斯麦，普鲁士和后来的德国总理，因其强硬的外交政策和对铁血政策的支持而被称为“铁血宰相”。</t>
-        </is>
-      </c>
-      <c r="E4" t="n">
-        <v>2</v>
-      </c>
-      <c r="F4" t="n">
-        <v>2</v>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>近代欧洲史</t>
-        </is>
-      </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>德国历史</t>
-        </is>
-      </c>
-      <c r="I4" t="inlineStr">
-        <is>
-          <t>奥托·冯·俾斯麦</t>
-        </is>
-      </c>
-      <c r="J4" t="inlineStr">
-        <is>
-          <t>拿破仑·波拿巴</t>
-        </is>
-      </c>
-      <c r="K4" t="inlineStr">
-        <is>
-          <t>罗伯斯庇尔</t>
-        </is>
-      </c>
-      <c r="L4" t="inlineStr">
-        <is>
-          <t>温斯顿·丘吉尔</t>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>美国独立宣言</t>
+        </is>
+      </c>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>美国历史</t>
         </is>
       </c>
     </row>
